--- a/keywords/goal_target_list.xlsx
+++ b/keywords/goal_target_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\SDG\Policy-Mapping\postprocess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\SDG\Policy-Mapping\keywords\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031BCE69-520E-484D-BA9E-E7B5A49F7160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A7599F-8473-4705-BF15-408CB4A179D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,57 +1176,6 @@
     <t>Partnerships for the goals</t>
   </si>
   <si>
-    <t>#e5243b</t>
-  </si>
-  <si>
-    <t>#dda63a</t>
-  </si>
-  <si>
-    <t>#4c9f38</t>
-  </si>
-  <si>
-    <t>#c5192d</t>
-  </si>
-  <si>
-    <t>#ff3a21</t>
-  </si>
-  <si>
-    <t>#26bde2</t>
-  </si>
-  <si>
-    <t>#fcc30b</t>
-  </si>
-  <si>
-    <t>#a21942</t>
-  </si>
-  <si>
-    <t>#fd6925</t>
-  </si>
-  <si>
-    <t>#dd1367</t>
-  </si>
-  <si>
-    <t>#fd9d24</t>
-  </si>
-  <si>
-    <t>#bf8b2e</t>
-  </si>
-  <si>
-    <t>#37e440</t>
-  </si>
-  <si>
-    <t>#0a97d9</t>
-  </si>
-  <si>
-    <t>#56c02b</t>
-  </si>
-  <si>
-    <t>#00689d</t>
-  </si>
-  <si>
-    <t>#19486a</t>
-  </si>
-  <si>
     <t>Human Development</t>
   </si>
   <si>
@@ -1243,13 +1192,64 @@
   </si>
   <si>
     <t>Migration</t>
+  </si>
+  <si>
+    <t>#E5243B</t>
+  </si>
+  <si>
+    <t>#DDA63A</t>
+  </si>
+  <si>
+    <t>#4C9F38</t>
+  </si>
+  <si>
+    <t>#C5192D</t>
+  </si>
+  <si>
+    <t>#FF3A21</t>
+  </si>
+  <si>
+    <t>#26BDE2</t>
+  </si>
+  <si>
+    <t>#FCC30B</t>
+  </si>
+  <si>
+    <t>#A21942</t>
+  </si>
+  <si>
+    <t>#FD6925</t>
+  </si>
+  <si>
+    <t>#DD1367</t>
+  </si>
+  <si>
+    <t>#FD9D24</t>
+  </si>
+  <si>
+    <t>#BF8B2E</t>
+  </si>
+  <si>
+    <t>#3F7E44</t>
+  </si>
+  <si>
+    <t>#0A97D9</t>
+  </si>
+  <si>
+    <t>#56C02B</t>
+  </si>
+  <si>
+    <t>#00689D</t>
+  </si>
+  <si>
+    <t>#19486A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +1261,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1307,12 +1313,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,15 +1658,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J170"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,32 +1677,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -1701,5024 +1708,4518 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" t="s">
         <v>381</v>
       </c>
-      <c r="J2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>178</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
-      </c>
-      <c r="H3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" t="s">
         <v>381</v>
       </c>
-      <c r="J3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>178</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>364</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="H4" t="s">
         <v>381</v>
       </c>
-      <c r="I4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>178</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
-      </c>
-      <c r="H5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" t="s">
         <v>381</v>
       </c>
-      <c r="J5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
       </c>
       <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" t="s">
         <v>381</v>
       </c>
-      <c r="J6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
       </c>
       <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>364</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" t="s">
         <v>381</v>
       </c>
-      <c r="J7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>178</v>
       </c>
       <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="G8" t="s">
-        <v>364</v>
-      </c>
-      <c r="H8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I8" t="s">
         <v>381</v>
       </c>
-      <c r="J8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>179</v>
       </c>
       <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
-      </c>
-      <c r="I9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
       </c>
       <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
         <v>2</v>
       </c>
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H10" t="s">
-        <v>382</v>
-      </c>
-      <c r="I10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>179</v>
       </c>
       <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
         <v>2</v>
       </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H11" t="s">
         <v>382</v>
       </c>
-      <c r="I11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>179</v>
       </c>
       <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
         <v>2</v>
       </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>365</v>
       </c>
       <c r="G12" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" t="s">
         <v>382</v>
       </c>
-      <c r="I12" t="s">
-        <v>400</v>
-      </c>
-      <c r="J12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>179</v>
       </c>
       <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
         <v>2</v>
       </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="G13" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
-      </c>
-      <c r="I13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>179</v>
       </c>
       <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
         <v>2</v>
       </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>365</v>
       </c>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H14" t="s">
         <v>382</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
-      </c>
-      <c r="J14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>179</v>
       </c>
       <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
         <v>2</v>
       </c>
+      <c r="E15" t="s">
+        <v>208</v>
+      </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
-      </c>
-      <c r="H15" t="s">
+        <v>388</v>
+      </c>
+      <c r="I15" t="s">
         <v>382</v>
       </c>
-      <c r="J15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>179</v>
       </c>
       <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
         <v>2</v>
       </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>365</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H16" t="s">
         <v>382</v>
       </c>
-      <c r="I16" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>180</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
         <v>3</v>
       </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="G17" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H17" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>180</v>
       </c>
       <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
         <v>3</v>
       </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H18" t="s">
-        <v>383</v>
-      </c>
-      <c r="I18" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>180</v>
       </c>
       <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
         <v>3</v>
       </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="G19" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H19" t="s">
-        <v>383</v>
-      </c>
-      <c r="I19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>180</v>
       </c>
       <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
         <v>3</v>
       </c>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H20" t="s">
-        <v>383</v>
-      </c>
-      <c r="J20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+        <v>389</v>
+      </c>
+      <c r="I20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
       </c>
       <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
         <v>3</v>
       </c>
+      <c r="E21" t="s">
+        <v>214</v>
+      </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>366</v>
       </c>
       <c r="G21" t="s">
-        <v>366</v>
-      </c>
-      <c r="H21" t="s">
-        <v>383</v>
-      </c>
-      <c r="J21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>180</v>
       </c>
       <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
         <v>3</v>
       </c>
+      <c r="E22" t="s">
+        <v>215</v>
+      </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="G22" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" t="s">
-        <v>383</v>
-      </c>
-      <c r="J22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>180</v>
       </c>
       <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23">
         <v>3</v>
       </c>
+      <c r="E23" t="s">
+        <v>216</v>
+      </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="G23" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H23" t="s">
-        <v>383</v>
-      </c>
-      <c r="I23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>180</v>
       </c>
       <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24">
         <v>3</v>
       </c>
+      <c r="E24" t="s">
+        <v>217</v>
+      </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H24" t="s">
-        <v>383</v>
-      </c>
-      <c r="I24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>180</v>
       </c>
       <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
         <v>3</v>
       </c>
+      <c r="E25" t="s">
+        <v>218</v>
+      </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>366</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H25" t="s">
         <v>383</v>
       </c>
       <c r="I25" t="s">
-        <v>400</v>
-      </c>
-      <c r="J25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>180</v>
       </c>
       <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
         <v>3</v>
       </c>
+      <c r="E26" t="s">
+        <v>219</v>
+      </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" t="s">
-        <v>383</v>
-      </c>
-      <c r="J26" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+        <v>389</v>
+      </c>
+      <c r="I26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>180</v>
       </c>
       <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
         <v>3</v>
       </c>
+      <c r="E27" t="s">
+        <v>220</v>
+      </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="G27" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H27" t="s">
-        <v>383</v>
-      </c>
-      <c r="I27" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>180</v>
       </c>
       <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28">
         <v>3</v>
       </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H28" t="s">
-        <v>383</v>
-      </c>
-      <c r="I28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>180</v>
       </c>
       <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
         <v>3</v>
       </c>
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="G29" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H29" t="s">
-        <v>383</v>
-      </c>
-      <c r="I29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>181</v>
       </c>
       <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30">
         <v>4</v>
       </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>367</v>
       </c>
       <c r="G30" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H30" t="s">
-        <v>384</v>
-      </c>
-      <c r="I30" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>181</v>
       </c>
       <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
         <v>4</v>
       </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="G31" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
-      </c>
-      <c r="I31" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>181</v>
       </c>
       <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32">
         <v>4</v>
       </c>
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="G32" t="s">
-        <v>367</v>
-      </c>
-      <c r="H32" t="s">
-        <v>384</v>
-      </c>
-      <c r="J32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+      <c r="I32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>181</v>
       </c>
       <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
         <v>4</v>
       </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="G33" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H33" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I33" t="s">
-        <v>398</v>
-      </c>
-      <c r="J33" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>181</v>
       </c>
       <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
         <v>4</v>
       </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>367</v>
       </c>
       <c r="G34" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H34" t="s">
+        <v>381</v>
+      </c>
+      <c r="I34" t="s">
         <v>384</v>
       </c>
-      <c r="I34" t="s">
-        <v>398</v>
-      </c>
-      <c r="J34" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>181</v>
       </c>
       <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35">
         <v>4</v>
       </c>
+      <c r="E35" t="s">
+        <v>228</v>
+      </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="G35" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H35" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I35" t="s">
-        <v>398</v>
-      </c>
-      <c r="J35" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>181</v>
       </c>
       <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36">
         <v>4</v>
       </c>
+      <c r="E36" t="s">
+        <v>229</v>
+      </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="G36" t="s">
-        <v>367</v>
-      </c>
-      <c r="H36" t="s">
-        <v>384</v>
-      </c>
-      <c r="J36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+        <v>390</v>
+      </c>
+      <c r="I36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>181</v>
       </c>
       <c r="D37">
-        <v>36</v>
-      </c>
-      <c r="E37">
         <v>4</v>
       </c>
+      <c r="E37" t="s">
+        <v>230</v>
+      </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="G37" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H37" t="s">
+        <v>381</v>
+      </c>
+      <c r="I37" t="s">
         <v>384</v>
       </c>
-      <c r="I37" t="s">
-        <v>398</v>
-      </c>
-      <c r="J37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>181</v>
       </c>
       <c r="D38">
-        <v>37</v>
-      </c>
-      <c r="E38">
         <v>4</v>
       </c>
+      <c r="E38" t="s">
+        <v>231</v>
+      </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I38" t="s">
-        <v>402</v>
-      </c>
-      <c r="J38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>181</v>
       </c>
       <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39">
         <v>4</v>
       </c>
+      <c r="E39" t="s">
+        <v>232</v>
+      </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="H39" t="s">
-        <v>384</v>
-      </c>
-      <c r="I39" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>182</v>
       </c>
       <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="E40">
         <v>5</v>
       </c>
+      <c r="E40" t="s">
+        <v>233</v>
+      </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I40" t="s">
-        <v>401</v>
-      </c>
-      <c r="J40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>182</v>
       </c>
       <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41">
         <v>5</v>
       </c>
+      <c r="E41" t="s">
+        <v>234</v>
+      </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I41" t="s">
-        <v>401</v>
-      </c>
-      <c r="J41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>182</v>
       </c>
       <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42">
         <v>5</v>
       </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I42" t="s">
-        <v>401</v>
-      </c>
-      <c r="J42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>182</v>
       </c>
       <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43">
         <v>5</v>
       </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>368</v>
-      </c>
-      <c r="H43" t="s">
-        <v>385</v>
-      </c>
-      <c r="J43" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+        <v>391</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>182</v>
       </c>
       <c r="D44">
-        <v>43</v>
-      </c>
-      <c r="E44">
         <v>5</v>
       </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I44" t="s">
-        <v>401</v>
-      </c>
-      <c r="J44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>182</v>
       </c>
       <c r="D45">
-        <v>44</v>
-      </c>
-      <c r="E45">
         <v>5</v>
       </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
       <c r="G45" t="s">
-        <v>368</v>
-      </c>
-      <c r="H45" t="s">
-        <v>385</v>
-      </c>
-      <c r="J45" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+        <v>391</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>182</v>
       </c>
       <c r="D46">
-        <v>45</v>
-      </c>
-      <c r="E46">
         <v>5</v>
       </c>
+      <c r="E46" t="s">
+        <v>239</v>
+      </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I46" t="s">
-        <v>399</v>
-      </c>
-      <c r="J46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>182</v>
       </c>
       <c r="D47">
-        <v>46</v>
-      </c>
-      <c r="E47">
         <v>5</v>
       </c>
+      <c r="E47" t="s">
+        <v>240</v>
+      </c>
       <c r="F47" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H47" t="s">
         <v>385</v>
       </c>
       <c r="I47" t="s">
-        <v>402</v>
-      </c>
-      <c r="J47" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>182</v>
       </c>
       <c r="D48">
-        <v>47</v>
-      </c>
-      <c r="E48">
         <v>5</v>
       </c>
+      <c r="E48" t="s">
+        <v>241</v>
+      </c>
       <c r="F48" t="s">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="G48" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="H48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
-      </c>
-      <c r="J48" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>183</v>
       </c>
       <c r="D49">
-        <v>48</v>
-      </c>
-      <c r="E49">
         <v>6</v>
       </c>
+      <c r="E49" t="s">
+        <v>242</v>
+      </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="G49" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H49" t="s">
-        <v>386</v>
-      </c>
-      <c r="I49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>183</v>
       </c>
       <c r="D50">
-        <v>49</v>
-      </c>
-      <c r="E50">
         <v>6</v>
       </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
       <c r="F50" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="G50" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H50" t="s">
-        <v>386</v>
-      </c>
-      <c r="I50" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>183</v>
       </c>
       <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51">
         <v>6</v>
       </c>
+      <c r="E51" t="s">
+        <v>244</v>
+      </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="G51" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H51" t="s">
-        <v>386</v>
-      </c>
-      <c r="I51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>183</v>
       </c>
       <c r="D52">
-        <v>51</v>
-      </c>
-      <c r="E52">
         <v>6</v>
       </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H52" t="s">
-        <v>386</v>
-      </c>
-      <c r="I52" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>183</v>
       </c>
       <c r="D53">
-        <v>52</v>
-      </c>
-      <c r="E53">
         <v>6</v>
       </c>
+      <c r="E53" t="s">
+        <v>246</v>
+      </c>
       <c r="F53" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
-      </c>
-      <c r="J53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>183</v>
       </c>
       <c r="D54">
-        <v>53</v>
-      </c>
-      <c r="E54">
         <v>6</v>
       </c>
+      <c r="E54" t="s">
+        <v>247</v>
+      </c>
       <c r="F54" t="s">
-        <v>247</v>
+        <v>369</v>
       </c>
       <c r="G54" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H54" t="s">
-        <v>386</v>
-      </c>
-      <c r="I54" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>183</v>
       </c>
       <c r="D55">
-        <v>54</v>
-      </c>
-      <c r="E55">
         <v>6</v>
       </c>
+      <c r="E55" t="s">
+        <v>248</v>
+      </c>
       <c r="F55" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="G55" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H55" t="s">
-        <v>386</v>
-      </c>
-      <c r="I55" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>183</v>
       </c>
       <c r="D56">
-        <v>55</v>
-      </c>
-      <c r="E56">
         <v>6</v>
       </c>
+      <c r="E56" t="s">
+        <v>249</v>
+      </c>
       <c r="F56" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="G56" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H56" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I56" t="s">
-        <v>398</v>
-      </c>
-      <c r="J56" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>184</v>
       </c>
       <c r="D57">
-        <v>56</v>
-      </c>
-      <c r="E57">
         <v>7</v>
       </c>
+      <c r="E57" t="s">
+        <v>250</v>
+      </c>
       <c r="F57" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="G57" t="s">
-        <v>370</v>
-      </c>
-      <c r="H57" t="s">
-        <v>387</v>
-      </c>
-      <c r="J57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
+        <v>393</v>
+      </c>
+      <c r="I57" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>184</v>
       </c>
       <c r="D58">
-        <v>57</v>
-      </c>
-      <c r="E58">
         <v>7</v>
       </c>
+      <c r="E58" t="s">
+        <v>251</v>
+      </c>
       <c r="F58" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="G58" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H58" t="s">
-        <v>387</v>
-      </c>
-      <c r="I58" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>184</v>
       </c>
       <c r="D59">
-        <v>58</v>
-      </c>
-      <c r="E59">
         <v>7</v>
       </c>
+      <c r="E59" t="s">
+        <v>252</v>
+      </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="G59" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H59" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I59" t="s">
-        <v>400</v>
-      </c>
-      <c r="J59" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>184</v>
       </c>
       <c r="D60">
-        <v>59</v>
-      </c>
-      <c r="E60">
         <v>7</v>
       </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="G60" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H60" t="s">
-        <v>387</v>
-      </c>
-      <c r="I60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
       </c>
       <c r="D61">
-        <v>60</v>
-      </c>
-      <c r="E61">
         <v>7</v>
       </c>
+      <c r="E61" t="s">
+        <v>254</v>
+      </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="G61" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H61" t="s">
-        <v>387</v>
-      </c>
-      <c r="I61" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>185</v>
       </c>
       <c r="D62">
-        <v>61</v>
-      </c>
-      <c r="E62">
         <v>8</v>
       </c>
+      <c r="E62" t="s">
+        <v>255</v>
+      </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H62" t="s">
-        <v>388</v>
-      </c>
-      <c r="I62" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>185</v>
       </c>
       <c r="D63">
-        <v>62</v>
-      </c>
-      <c r="E63">
         <v>8</v>
       </c>
+      <c r="E63" t="s">
+        <v>256</v>
+      </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H63" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I63" t="s">
-        <v>402</v>
-      </c>
-      <c r="J63" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>185</v>
       </c>
       <c r="D64">
-        <v>63</v>
-      </c>
-      <c r="E64">
         <v>8</v>
       </c>
+      <c r="E64" t="s">
+        <v>257</v>
+      </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H64" t="s">
-        <v>388</v>
-      </c>
-      <c r="I64" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>185</v>
       </c>
       <c r="D65">
-        <v>64</v>
-      </c>
-      <c r="E65">
         <v>8</v>
       </c>
+      <c r="E65" t="s">
+        <v>258</v>
+      </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H65" t="s">
-        <v>388</v>
-      </c>
-      <c r="I65" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>185</v>
       </c>
       <c r="D66">
-        <v>65</v>
-      </c>
-      <c r="E66">
         <v>8</v>
       </c>
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H66" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I66" t="s">
-        <v>399</v>
-      </c>
-      <c r="J66" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>185</v>
       </c>
       <c r="D67">
-        <v>66</v>
-      </c>
-      <c r="E67">
         <v>8</v>
       </c>
+      <c r="E67" t="s">
+        <v>260</v>
+      </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="G67" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H67" t="s">
-        <v>388</v>
-      </c>
-      <c r="I67" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>185</v>
       </c>
       <c r="D68">
-        <v>67</v>
-      </c>
-      <c r="E68">
         <v>8</v>
       </c>
+      <c r="E68" t="s">
+        <v>261</v>
+      </c>
       <c r="F68" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H68" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I68" t="s">
-        <v>401</v>
-      </c>
-      <c r="J68" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>185</v>
       </c>
       <c r="D69">
-        <v>68</v>
-      </c>
-      <c r="E69">
         <v>8</v>
       </c>
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H69" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I69" t="s">
-        <v>401</v>
-      </c>
-      <c r="J69" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>185</v>
       </c>
       <c r="D70">
-        <v>69</v>
-      </c>
-      <c r="E70">
         <v>8</v>
       </c>
+      <c r="E70" t="s">
+        <v>263</v>
+      </c>
       <c r="F70" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="G70" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H70" t="s">
-        <v>388</v>
-      </c>
-      <c r="I70" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>185</v>
       </c>
       <c r="D71">
-        <v>70</v>
-      </c>
-      <c r="E71">
         <v>8</v>
       </c>
+      <c r="E71" t="s">
+        <v>264</v>
+      </c>
       <c r="F71" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="G71" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H71" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I71" t="s">
-        <v>399</v>
-      </c>
-      <c r="J71" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>185</v>
       </c>
       <c r="D72">
-        <v>71</v>
-      </c>
-      <c r="E72">
         <v>8</v>
       </c>
+      <c r="E72" t="s">
+        <v>265</v>
+      </c>
       <c r="F72" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H72" t="s">
-        <v>388</v>
-      </c>
-      <c r="I72" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>185</v>
       </c>
       <c r="D73">
-        <v>72</v>
-      </c>
-      <c r="E73">
         <v>8</v>
       </c>
+      <c r="E73" t="s">
+        <v>266</v>
+      </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="G73" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="H73" t="s">
-        <v>388</v>
-      </c>
-      <c r="I73" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>186</v>
       </c>
       <c r="D74">
-        <v>73</v>
-      </c>
-      <c r="E74">
         <v>9</v>
       </c>
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>372</v>
       </c>
       <c r="G74" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
-      </c>
-      <c r="I74" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="s">
         <v>186</v>
       </c>
       <c r="D75">
-        <v>74</v>
-      </c>
-      <c r="E75">
         <v>9</v>
       </c>
+      <c r="E75" t="s">
+        <v>268</v>
+      </c>
       <c r="F75" t="s">
-        <v>268</v>
+        <v>372</v>
       </c>
       <c r="G75" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H75" t="s">
-        <v>389</v>
-      </c>
-      <c r="I75" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>186</v>
       </c>
       <c r="D76">
-        <v>75</v>
-      </c>
-      <c r="E76">
         <v>9</v>
       </c>
+      <c r="E76" t="s">
+        <v>269</v>
+      </c>
       <c r="F76" t="s">
-        <v>269</v>
+        <v>372</v>
       </c>
       <c r="G76" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H76" t="s">
-        <v>389</v>
-      </c>
-      <c r="I76" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C77" t="s">
         <v>186</v>
       </c>
       <c r="D77">
-        <v>76</v>
-      </c>
-      <c r="E77">
         <v>9</v>
       </c>
+      <c r="E77" t="s">
+        <v>270</v>
+      </c>
       <c r="F77" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="G77" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H77" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I77" t="s">
-        <v>400</v>
-      </c>
-      <c r="J77" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>186</v>
       </c>
       <c r="D78">
-        <v>77</v>
-      </c>
-      <c r="E78">
         <v>9</v>
       </c>
+      <c r="E78" t="s">
+        <v>271</v>
+      </c>
       <c r="F78" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="G78" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H78" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I78" t="s">
-        <v>399</v>
-      </c>
-      <c r="J78" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>186</v>
       </c>
       <c r="D79">
-        <v>78</v>
-      </c>
-      <c r="E79">
         <v>9</v>
       </c>
+      <c r="E79" t="s">
+        <v>272</v>
+      </c>
       <c r="F79" t="s">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="G79" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H79" t="s">
-        <v>389</v>
-      </c>
-      <c r="I79" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>186</v>
       </c>
       <c r="D80">
-        <v>79</v>
-      </c>
-      <c r="E80">
         <v>9</v>
       </c>
+      <c r="E80" t="s">
+        <v>273</v>
+      </c>
       <c r="F80" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="G80" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H80" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I80" t="s">
-        <v>399</v>
-      </c>
-      <c r="J80" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>186</v>
       </c>
       <c r="D81">
-        <v>80</v>
-      </c>
-      <c r="E81">
         <v>9</v>
       </c>
+      <c r="E81" t="s">
+        <v>274</v>
+      </c>
       <c r="F81" t="s">
-        <v>274</v>
+        <v>372</v>
       </c>
       <c r="G81" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H81" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I81" t="s">
-        <v>402</v>
-      </c>
-      <c r="J81" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C82" t="s">
         <v>187</v>
       </c>
       <c r="D82">
-        <v>81</v>
-      </c>
-      <c r="E82">
         <v>10</v>
       </c>
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
       <c r="F82" t="s">
-        <v>275</v>
+        <v>373</v>
       </c>
       <c r="G82" t="s">
-        <v>373</v>
-      </c>
-      <c r="H82" t="s">
-        <v>390</v>
-      </c>
-      <c r="J82" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
+        <v>396</v>
+      </c>
+      <c r="I82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>187</v>
       </c>
       <c r="D83">
-        <v>82</v>
-      </c>
-      <c r="E83">
         <v>10</v>
       </c>
+      <c r="E83" t="s">
+        <v>276</v>
+      </c>
       <c r="F83" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="G83" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H83" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I83" t="s">
-        <v>401</v>
-      </c>
-      <c r="J83" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>187</v>
       </c>
       <c r="D84">
-        <v>83</v>
-      </c>
-      <c r="E84">
         <v>10</v>
       </c>
+      <c r="E84" t="s">
+        <v>277</v>
+      </c>
       <c r="F84" t="s">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="G84" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H84" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I84" t="s">
-        <v>401</v>
-      </c>
-      <c r="J84" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C85" t="s">
         <v>187</v>
       </c>
       <c r="D85">
-        <v>84</v>
-      </c>
-      <c r="E85">
         <v>10</v>
       </c>
+      <c r="E85" t="s">
+        <v>278</v>
+      </c>
       <c r="F85" t="s">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="G85" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H85" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I85" t="s">
-        <v>398</v>
-      </c>
-      <c r="J85" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C86" t="s">
         <v>187</v>
       </c>
       <c r="D86">
-        <v>85</v>
-      </c>
-      <c r="E86">
         <v>10</v>
       </c>
+      <c r="E86" t="s">
+        <v>279</v>
+      </c>
       <c r="F86" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
       <c r="G86" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H86" t="s">
-        <v>390</v>
-      </c>
-      <c r="I86" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C87" t="s">
         <v>187</v>
       </c>
       <c r="D87">
-        <v>86</v>
-      </c>
-      <c r="E87">
         <v>10</v>
       </c>
+      <c r="E87" t="s">
+        <v>280</v>
+      </c>
       <c r="F87" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="G87" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H87" t="s">
-        <v>390</v>
-      </c>
-      <c r="I87" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>187</v>
       </c>
       <c r="D88">
-        <v>87</v>
-      </c>
-      <c r="E88">
         <v>10</v>
       </c>
+      <c r="E88" t="s">
+        <v>281</v>
+      </c>
       <c r="F88" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
       <c r="G88" t="s">
-        <v>373</v>
-      </c>
-      <c r="H88" t="s">
-        <v>390</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
+        <v>396</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C89" t="s">
         <v>187</v>
       </c>
       <c r="D89">
-        <v>88</v>
-      </c>
-      <c r="E89">
         <v>10</v>
       </c>
+      <c r="E89" t="s">
+        <v>282</v>
+      </c>
       <c r="F89" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="G89" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="H89" t="s">
-        <v>390</v>
-      </c>
-      <c r="I89" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C90" t="s">
         <v>187</v>
       </c>
       <c r="D90">
-        <v>89</v>
-      </c>
-      <c r="E90">
         <v>10</v>
       </c>
+      <c r="E90" t="s">
+        <v>283</v>
+      </c>
       <c r="F90" t="s">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="G90" t="s">
-        <v>373</v>
-      </c>
-      <c r="H90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>187</v>
       </c>
       <c r="D91">
-        <v>90</v>
-      </c>
-      <c r="E91">
         <v>10</v>
       </c>
+      <c r="E91" t="s">
+        <v>284</v>
+      </c>
       <c r="F91" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="G91" t="s">
-        <v>373</v>
-      </c>
-      <c r="H91" t="s">
-        <v>390</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J91" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
+        <v>396</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I91" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C92" t="s">
         <v>188</v>
       </c>
       <c r="D92">
-        <v>91</v>
-      </c>
-      <c r="E92">
         <v>11</v>
       </c>
+      <c r="E92" t="s">
+        <v>285</v>
+      </c>
       <c r="F92" t="s">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="G92" t="s">
-        <v>374</v>
-      </c>
-      <c r="H92" t="s">
-        <v>391</v>
-      </c>
-      <c r="J92" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
+        <v>397</v>
+      </c>
+      <c r="I92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>188</v>
       </c>
       <c r="D93">
-        <v>92</v>
-      </c>
-      <c r="E93">
         <v>11</v>
       </c>
+      <c r="E93" t="s">
+        <v>286</v>
+      </c>
       <c r="F93" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H93" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I93" t="s">
-        <v>400</v>
-      </c>
-      <c r="J93" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>188</v>
       </c>
       <c r="D94">
-        <v>93</v>
-      </c>
-      <c r="E94">
         <v>11</v>
       </c>
+      <c r="E94" t="s">
+        <v>287</v>
+      </c>
       <c r="F94" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="G94" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H94" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I94" t="s">
-        <v>401</v>
-      </c>
-      <c r="J94" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C95" t="s">
         <v>188</v>
       </c>
       <c r="D95">
-        <v>94</v>
-      </c>
-      <c r="E95">
         <v>11</v>
       </c>
+      <c r="E95" t="s">
+        <v>288</v>
+      </c>
       <c r="F95" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="G95" t="s">
-        <v>374</v>
-      </c>
-      <c r="H95" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C96" t="s">
         <v>188</v>
       </c>
       <c r="D96">
-        <v>95</v>
-      </c>
-      <c r="E96">
         <v>11</v>
       </c>
+      <c r="E96" t="s">
+        <v>289</v>
+      </c>
       <c r="F96" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="G96" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H96" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I96" t="s">
-        <v>400</v>
-      </c>
-      <c r="J96" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>188</v>
       </c>
       <c r="D97">
-        <v>96</v>
-      </c>
-      <c r="E97">
         <v>11</v>
       </c>
+      <c r="E97" t="s">
+        <v>290</v>
+      </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
       <c r="G97" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H97" t="s">
-        <v>391</v>
-      </c>
-      <c r="I97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>188</v>
       </c>
       <c r="D98">
-        <v>97</v>
-      </c>
-      <c r="E98">
         <v>11</v>
       </c>
+      <c r="E98" t="s">
+        <v>291</v>
+      </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="G98" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H98" t="s">
-        <v>391</v>
-      </c>
-      <c r="I98" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C99" t="s">
         <v>188</v>
       </c>
       <c r="D99">
-        <v>98</v>
-      </c>
-      <c r="E99">
         <v>11</v>
       </c>
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H99" t="s">
-        <v>391</v>
-      </c>
-      <c r="I99" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>188</v>
       </c>
       <c r="D100">
-        <v>99</v>
-      </c>
-      <c r="E100">
         <v>11</v>
       </c>
+      <c r="E100" t="s">
+        <v>293</v>
+      </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H100" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I100" t="s">
-        <v>401</v>
-      </c>
-      <c r="J100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C101" t="s">
         <v>188</v>
       </c>
       <c r="D101">
-        <v>100</v>
-      </c>
-      <c r="E101">
         <v>11</v>
       </c>
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="G101" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H101" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I101" t="s">
-        <v>399</v>
-      </c>
-      <c r="J101" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C102" t="s">
         <v>189</v>
       </c>
       <c r="D102">
-        <v>101</v>
-      </c>
-      <c r="E102">
         <v>12</v>
       </c>
+      <c r="E102" t="s">
+        <v>295</v>
+      </c>
       <c r="F102" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="G102" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H102" t="s">
-        <v>392</v>
-      </c>
-      <c r="I102" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C103" t="s">
         <v>189</v>
       </c>
       <c r="D103">
-        <v>102</v>
-      </c>
-      <c r="E103">
         <v>12</v>
       </c>
+      <c r="E103" t="s">
+        <v>296</v>
+      </c>
       <c r="F103" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="G103" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H103" t="s">
-        <v>392</v>
-      </c>
-      <c r="I103" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>189</v>
       </c>
       <c r="D104">
-        <v>103</v>
-      </c>
-      <c r="E104">
         <v>12</v>
       </c>
+      <c r="E104" t="s">
+        <v>297</v>
+      </c>
       <c r="F104" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="G104" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H104" t="s">
-        <v>392</v>
-      </c>
-      <c r="I104" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C105" t="s">
         <v>189</v>
       </c>
       <c r="D105">
-        <v>104</v>
-      </c>
-      <c r="E105">
         <v>12</v>
       </c>
+      <c r="E105" t="s">
+        <v>298</v>
+      </c>
       <c r="F105" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="G105" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H105" t="s">
-        <v>392</v>
-      </c>
-      <c r="I105" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>189</v>
       </c>
       <c r="D106">
-        <v>105</v>
-      </c>
-      <c r="E106">
         <v>12</v>
       </c>
+      <c r="E106" t="s">
+        <v>299</v>
+      </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="G106" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H106" t="s">
-        <v>392</v>
-      </c>
-      <c r="I106" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>189</v>
       </c>
       <c r="D107">
-        <v>106</v>
-      </c>
-      <c r="E107">
         <v>12</v>
       </c>
+      <c r="E107" t="s">
+        <v>300</v>
+      </c>
       <c r="F107" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="G107" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H107" t="s">
-        <v>392</v>
-      </c>
-      <c r="I107" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C108" t="s">
         <v>189</v>
       </c>
       <c r="D108">
-        <v>107</v>
-      </c>
-      <c r="E108">
         <v>12</v>
       </c>
+      <c r="E108" t="s">
+        <v>301</v>
+      </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="G108" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H108" t="s">
-        <v>392</v>
-      </c>
-      <c r="I108" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C109" t="s">
         <v>189</v>
       </c>
       <c r="D109">
-        <v>108</v>
-      </c>
-      <c r="E109">
         <v>12</v>
       </c>
+      <c r="E109" t="s">
+        <v>302</v>
+      </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>375</v>
       </c>
       <c r="G109" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H109" t="s">
-        <v>392</v>
-      </c>
-      <c r="I109" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C110" t="s">
         <v>189</v>
       </c>
       <c r="D110">
-        <v>109</v>
-      </c>
-      <c r="E110">
         <v>12</v>
       </c>
+      <c r="E110" t="s">
+        <v>303</v>
+      </c>
       <c r="F110" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="G110" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H110" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I110" t="s">
-        <v>400</v>
-      </c>
-      <c r="J110" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>189</v>
       </c>
       <c r="D111">
-        <v>110</v>
-      </c>
-      <c r="E111">
         <v>12</v>
       </c>
+      <c r="E111" t="s">
+        <v>304</v>
+      </c>
       <c r="F111" t="s">
-        <v>304</v>
+        <v>375</v>
       </c>
       <c r="G111" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H111" t="s">
-        <v>392</v>
-      </c>
-      <c r="I111" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C112" t="s">
         <v>189</v>
       </c>
       <c r="D112">
-        <v>111</v>
-      </c>
-      <c r="E112">
         <v>12</v>
       </c>
+      <c r="E112" t="s">
+        <v>305</v>
+      </c>
       <c r="F112" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="G112" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="H112" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I112" t="s">
-        <v>400</v>
-      </c>
-      <c r="J112" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>190</v>
       </c>
       <c r="D113">
-        <v>112</v>
-      </c>
-      <c r="E113">
         <v>13</v>
       </c>
+      <c r="E113" t="s">
+        <v>306</v>
+      </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="G113" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H113" t="s">
-        <v>393</v>
-      </c>
-      <c r="I113" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C114" t="s">
         <v>190</v>
       </c>
       <c r="D114">
-        <v>113</v>
-      </c>
-      <c r="E114">
         <v>13</v>
       </c>
+      <c r="E114" t="s">
+        <v>307</v>
+      </c>
       <c r="F114" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="G114" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H114" t="s">
-        <v>393</v>
-      </c>
-      <c r="I114" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C115" t="s">
         <v>190</v>
       </c>
       <c r="D115">
-        <v>114</v>
-      </c>
-      <c r="E115">
         <v>13</v>
       </c>
+      <c r="E115" t="s">
+        <v>308</v>
+      </c>
       <c r="F115" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="G115" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H115" t="s">
-        <v>393</v>
-      </c>
-      <c r="I115" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>190</v>
       </c>
       <c r="D116">
-        <v>115</v>
-      </c>
-      <c r="E116">
         <v>13</v>
       </c>
+      <c r="E116" t="s">
+        <v>309</v>
+      </c>
       <c r="F116" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="G116" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H116" t="s">
-        <v>393</v>
-      </c>
-      <c r="I116" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>190</v>
       </c>
       <c r="D117">
-        <v>116</v>
-      </c>
-      <c r="E117">
         <v>13</v>
       </c>
+      <c r="E117" t="s">
+        <v>310</v>
+      </c>
       <c r="F117" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="G117" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="H117" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I117" t="s">
-        <v>400</v>
-      </c>
-      <c r="J117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C118" t="s">
         <v>191</v>
       </c>
       <c r="D118">
-        <v>117</v>
-      </c>
-      <c r="E118">
         <v>14</v>
       </c>
+      <c r="E118" t="s">
+        <v>311</v>
+      </c>
       <c r="F118" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="G118" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H118" t="s">
-        <v>394</v>
-      </c>
-      <c r="I118" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C119" t="s">
         <v>191</v>
       </c>
       <c r="D119">
-        <v>118</v>
-      </c>
-      <c r="E119">
         <v>14</v>
       </c>
+      <c r="E119" t="s">
+        <v>312</v>
+      </c>
       <c r="F119" t="s">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="G119" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H119" t="s">
-        <v>394</v>
-      </c>
-      <c r="I119" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>191</v>
       </c>
       <c r="D120">
-        <v>119</v>
-      </c>
-      <c r="E120">
         <v>14</v>
       </c>
+      <c r="E120" t="s">
+        <v>313</v>
+      </c>
       <c r="F120" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="G120" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H120" t="s">
-        <v>394</v>
-      </c>
-      <c r="I120" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C121" t="s">
         <v>191</v>
       </c>
       <c r="D121">
-        <v>120</v>
-      </c>
-      <c r="E121">
         <v>14</v>
       </c>
+      <c r="E121" t="s">
+        <v>314</v>
+      </c>
       <c r="F121" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="G121" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H121" t="s">
-        <v>394</v>
-      </c>
-      <c r="I121" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C122" t="s">
         <v>191</v>
       </c>
       <c r="D122">
-        <v>121</v>
-      </c>
-      <c r="E122">
         <v>14</v>
       </c>
+      <c r="E122" t="s">
+        <v>315</v>
+      </c>
       <c r="F122" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="G122" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H122" t="s">
-        <v>394</v>
-      </c>
-      <c r="I122" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>191</v>
       </c>
       <c r="D123">
-        <v>122</v>
-      </c>
-      <c r="E123">
         <v>14</v>
       </c>
+      <c r="E123" t="s">
+        <v>316</v>
+      </c>
       <c r="F123" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="G123" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H123" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I123" t="s">
-        <v>400</v>
-      </c>
-      <c r="J123" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C124" t="s">
         <v>191</v>
       </c>
       <c r="D124">
-        <v>123</v>
-      </c>
-      <c r="E124">
         <v>14</v>
       </c>
+      <c r="E124" t="s">
+        <v>317</v>
+      </c>
       <c r="F124" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="G124" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H124" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I124" t="s">
-        <v>400</v>
-      </c>
-      <c r="J124" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C125" t="s">
         <v>191</v>
       </c>
       <c r="D125">
-        <v>124</v>
-      </c>
-      <c r="E125">
         <v>14</v>
       </c>
+      <c r="E125" t="s">
+        <v>318</v>
+      </c>
       <c r="F125" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="G125" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H125" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I125" t="s">
-        <v>400</v>
-      </c>
-      <c r="J125" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C126" t="s">
         <v>191</v>
       </c>
       <c r="D126">
-        <v>125</v>
-      </c>
-      <c r="E126">
         <v>14</v>
       </c>
+      <c r="E126" t="s">
+        <v>319</v>
+      </c>
       <c r="F126" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="G126" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H126" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I126" t="s">
-        <v>400</v>
-      </c>
-      <c r="J126" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C127" t="s">
         <v>191</v>
       </c>
       <c r="D127">
-        <v>126</v>
-      </c>
-      <c r="E127">
         <v>14</v>
       </c>
+      <c r="E127" t="s">
+        <v>320</v>
+      </c>
       <c r="F127" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="G127" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="H127" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I127" t="s">
-        <v>400</v>
-      </c>
-      <c r="J127" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C128" t="s">
         <v>192</v>
       </c>
       <c r="D128">
-        <v>127</v>
-      </c>
-      <c r="E128">
         <v>15</v>
       </c>
+      <c r="E128" t="s">
+        <v>321</v>
+      </c>
       <c r="F128" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="G128" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H128" t="s">
-        <v>395</v>
-      </c>
-      <c r="I128" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C129" t="s">
         <v>192</v>
       </c>
       <c r="D129">
-        <v>128</v>
-      </c>
-      <c r="E129">
         <v>15</v>
       </c>
+      <c r="E129" t="s">
+        <v>322</v>
+      </c>
       <c r="F129" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="G129" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H129" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I129" t="s">
-        <v>400</v>
-      </c>
-      <c r="J129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C130" t="s">
         <v>192</v>
       </c>
       <c r="D130">
-        <v>129</v>
-      </c>
-      <c r="E130">
         <v>15</v>
       </c>
+      <c r="E130" t="s">
+        <v>323</v>
+      </c>
       <c r="F130" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="G130" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H130" t="s">
-        <v>395</v>
-      </c>
-      <c r="I130" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C131" t="s">
         <v>192</v>
       </c>
       <c r="D131">
-        <v>130</v>
-      </c>
-      <c r="E131">
         <v>15</v>
       </c>
+      <c r="E131" t="s">
+        <v>324</v>
+      </c>
       <c r="F131" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="G131" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H131" t="s">
-        <v>395</v>
-      </c>
-      <c r="I131" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C132" t="s">
         <v>192</v>
       </c>
       <c r="D132">
-        <v>131</v>
-      </c>
-      <c r="E132">
         <v>15</v>
       </c>
+      <c r="E132" t="s">
+        <v>325</v>
+      </c>
       <c r="F132" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="G132" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H132" t="s">
-        <v>395</v>
-      </c>
-      <c r="I132" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C133" t="s">
         <v>192</v>
       </c>
       <c r="D133">
-        <v>132</v>
-      </c>
-      <c r="E133">
         <v>15</v>
       </c>
+      <c r="E133" t="s">
+        <v>326</v>
+      </c>
       <c r="F133" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="G133" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H133" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I133" t="s">
-        <v>400</v>
-      </c>
-      <c r="J133" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C134" t="s">
         <v>192</v>
       </c>
       <c r="D134">
-        <v>133</v>
-      </c>
-      <c r="E134">
         <v>15</v>
       </c>
+      <c r="E134" t="s">
+        <v>327</v>
+      </c>
       <c r="F134" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H134" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I134" t="s">
-        <v>400</v>
-      </c>
-      <c r="J134" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C135" t="s">
         <v>192</v>
       </c>
       <c r="D135">
-        <v>134</v>
-      </c>
-      <c r="E135">
         <v>15</v>
       </c>
+      <c r="E135" t="s">
+        <v>328</v>
+      </c>
       <c r="F135" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="G135" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H135" t="s">
-        <v>395</v>
-      </c>
-      <c r="I135" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C136" t="s">
         <v>192</v>
       </c>
       <c r="D136">
-        <v>135</v>
-      </c>
-      <c r="E136">
         <v>15</v>
       </c>
+      <c r="E136" t="s">
+        <v>329</v>
+      </c>
       <c r="F136" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="G136" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H136" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I136" t="s">
-        <v>400</v>
-      </c>
-      <c r="J136" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C137" t="s">
         <v>192</v>
       </c>
       <c r="D137">
-        <v>136</v>
-      </c>
-      <c r="E137">
         <v>15</v>
       </c>
+      <c r="E137" t="s">
+        <v>330</v>
+      </c>
       <c r="F137" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="G137" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H137" t="s">
-        <v>395</v>
-      </c>
-      <c r="I137" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C138" t="s">
         <v>192</v>
       </c>
       <c r="D138">
-        <v>137</v>
-      </c>
-      <c r="E138">
         <v>15</v>
       </c>
+      <c r="E138" t="s">
+        <v>331</v>
+      </c>
       <c r="F138" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="G138" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H138" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I138" t="s">
-        <v>400</v>
-      </c>
-      <c r="J138" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C139" t="s">
         <v>192</v>
       </c>
       <c r="D139">
-        <v>138</v>
-      </c>
-      <c r="E139">
         <v>15</v>
       </c>
+      <c r="E139" t="s">
+        <v>332</v>
+      </c>
       <c r="F139" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G139" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H139" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I139" t="s">
-        <v>400</v>
-      </c>
-      <c r="J139" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C140" t="s">
         <v>193</v>
       </c>
       <c r="D140">
-        <v>139</v>
-      </c>
-      <c r="E140">
         <v>16</v>
       </c>
+      <c r="E140" t="s">
+        <v>333</v>
+      </c>
       <c r="F140" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="G140" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H140" t="s">
-        <v>396</v>
-      </c>
-      <c r="I140" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C141" t="s">
         <v>193</v>
       </c>
       <c r="D141">
-        <v>140</v>
-      </c>
-      <c r="E141">
         <v>16</v>
       </c>
+      <c r="E141" t="s">
+        <v>334</v>
+      </c>
       <c r="F141" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="G141" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H141" t="s">
-        <v>396</v>
-      </c>
-      <c r="I141" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C142" t="s">
         <v>193</v>
       </c>
       <c r="D142">
-        <v>141</v>
-      </c>
-      <c r="E142">
         <v>16</v>
       </c>
+      <c r="E142" t="s">
+        <v>335</v>
+      </c>
       <c r="F142" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G142" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H142" t="s">
-        <v>396</v>
-      </c>
-      <c r="I142" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C143" t="s">
         <v>193</v>
       </c>
       <c r="D143">
-        <v>142</v>
-      </c>
-      <c r="E143">
         <v>16</v>
       </c>
+      <c r="E143" t="s">
+        <v>336</v>
+      </c>
       <c r="F143" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G143" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H143" t="s">
-        <v>396</v>
-      </c>
-      <c r="I143" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C144" t="s">
         <v>193</v>
       </c>
       <c r="D144">
-        <v>143</v>
-      </c>
-      <c r="E144">
         <v>16</v>
       </c>
+      <c r="E144" t="s">
+        <v>337</v>
+      </c>
       <c r="F144" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="G144" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H144" t="s">
-        <v>396</v>
-      </c>
-      <c r="I144" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C145" t="s">
         <v>193</v>
       </c>
       <c r="D145">
-        <v>144</v>
-      </c>
-      <c r="E145">
         <v>16</v>
       </c>
+      <c r="E145" t="s">
+        <v>338</v>
+      </c>
       <c r="F145" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G145" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H145" t="s">
-        <v>396</v>
-      </c>
-      <c r="I145" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C146" t="s">
         <v>193</v>
       </c>
       <c r="D146">
-        <v>145</v>
-      </c>
-      <c r="E146">
         <v>16</v>
       </c>
+      <c r="E146" t="s">
+        <v>339</v>
+      </c>
       <c r="F146" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G146" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H146" t="s">
-        <v>396</v>
-      </c>
-      <c r="I146" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C147" t="s">
         <v>193</v>
       </c>
       <c r="D147">
-        <v>146</v>
-      </c>
-      <c r="E147">
         <v>16</v>
       </c>
+      <c r="E147" t="s">
+        <v>340</v>
+      </c>
       <c r="F147" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="G147" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H147" t="s">
-        <v>396</v>
-      </c>
-      <c r="I147" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C148" t="s">
         <v>193</v>
       </c>
       <c r="D148">
-        <v>147</v>
-      </c>
-      <c r="E148">
         <v>16</v>
       </c>
+      <c r="E148" t="s">
+        <v>341</v>
+      </c>
       <c r="F148" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G148" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H148" t="s">
-        <v>396</v>
-      </c>
-      <c r="I148" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C149" t="s">
         <v>193</v>
       </c>
       <c r="D149">
-        <v>148</v>
-      </c>
-      <c r="E149">
         <v>16</v>
       </c>
+      <c r="E149" t="s">
+        <v>342</v>
+      </c>
       <c r="F149" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G149" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H149" t="s">
-        <v>396</v>
-      </c>
-      <c r="I149" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C150" t="s">
         <v>193</v>
       </c>
       <c r="D150">
-        <v>149</v>
-      </c>
-      <c r="E150">
         <v>16</v>
       </c>
+      <c r="E150" t="s">
+        <v>343</v>
+      </c>
       <c r="F150" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="G150" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H150" t="s">
-        <v>396</v>
-      </c>
-      <c r="I150" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C151" t="s">
         <v>193</v>
       </c>
       <c r="D151">
-        <v>150</v>
-      </c>
-      <c r="E151">
         <v>16</v>
       </c>
+      <c r="E151" t="s">
+        <v>344</v>
+      </c>
       <c r="F151" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G151" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H151" t="s">
-        <v>396</v>
-      </c>
-      <c r="I151" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C152" t="s">
         <v>194</v>
       </c>
       <c r="D152">
-        <v>151</v>
-      </c>
-      <c r="E152">
         <v>17</v>
       </c>
+      <c r="E152" t="s">
+        <v>345</v>
+      </c>
       <c r="F152" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="G152" t="s">
-        <v>380</v>
-      </c>
-      <c r="H152" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C153" t="s">
         <v>194</v>
       </c>
       <c r="D153">
-        <v>152</v>
-      </c>
-      <c r="E153">
         <v>17</v>
       </c>
+      <c r="E153" t="s">
+        <v>346</v>
+      </c>
       <c r="F153" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G153" t="s">
-        <v>380</v>
-      </c>
-      <c r="H153" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C154" t="s">
         <v>194</v>
       </c>
       <c r="D154">
-        <v>153</v>
-      </c>
-      <c r="E154">
         <v>17</v>
       </c>
+      <c r="E154" t="s">
+        <v>347</v>
+      </c>
       <c r="F154" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="G154" t="s">
-        <v>380</v>
-      </c>
-      <c r="H154" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C155" t="s">
         <v>194</v>
       </c>
       <c r="D155">
-        <v>154</v>
-      </c>
-      <c r="E155">
         <v>17</v>
       </c>
+      <c r="E155" t="s">
+        <v>348</v>
+      </c>
       <c r="F155" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="G155" t="s">
-        <v>380</v>
-      </c>
-      <c r="H155" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C156" t="s">
         <v>194</v>
       </c>
       <c r="D156">
-        <v>155</v>
-      </c>
-      <c r="E156">
         <v>17</v>
       </c>
+      <c r="E156" t="s">
+        <v>349</v>
+      </c>
       <c r="F156" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="G156" t="s">
-        <v>380</v>
-      </c>
-      <c r="H156" t="s">
-        <v>397</v>
-      </c>
-      <c r="J156" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
+        <v>403</v>
+      </c>
+      <c r="I156" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C157" t="s">
         <v>194</v>
       </c>
       <c r="D157">
-        <v>156</v>
-      </c>
-      <c r="E157">
         <v>17</v>
       </c>
+      <c r="E157" t="s">
+        <v>350</v>
+      </c>
       <c r="F157" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G157" t="s">
-        <v>380</v>
-      </c>
-      <c r="H157" t="s">
-        <v>397</v>
-      </c>
-      <c r="J157" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
+        <v>403</v>
+      </c>
+      <c r="I157" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C158" t="s">
         <v>194</v>
       </c>
       <c r="D158">
-        <v>157</v>
-      </c>
-      <c r="E158">
         <v>17</v>
       </c>
+      <c r="E158" t="s">
+        <v>351</v>
+      </c>
       <c r="F158" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
-      </c>
-      <c r="H158" t="s">
-        <v>397</v>
-      </c>
-      <c r="J158" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
+        <v>403</v>
+      </c>
+      <c r="I158" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C159" t="s">
         <v>194</v>
       </c>
       <c r="D159">
-        <v>158</v>
-      </c>
-      <c r="E159">
         <v>17</v>
       </c>
+      <c r="E159" t="s">
+        <v>352</v>
+      </c>
       <c r="F159" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
-      </c>
-      <c r="H159" t="s">
-        <v>397</v>
-      </c>
-      <c r="J159" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
+        <v>403</v>
+      </c>
+      <c r="I159" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C160" t="s">
         <v>194</v>
       </c>
       <c r="D160">
-        <v>159</v>
-      </c>
-      <c r="E160">
         <v>17</v>
       </c>
+      <c r="E160" t="s">
+        <v>353</v>
+      </c>
       <c r="F160" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="G160" t="s">
-        <v>380</v>
-      </c>
-      <c r="H160" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C161" t="s">
         <v>194</v>
       </c>
       <c r="D161">
-        <v>160</v>
-      </c>
-      <c r="E161">
         <v>17</v>
       </c>
+      <c r="E161" t="s">
+        <v>354</v>
+      </c>
       <c r="F161" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H161" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I161" t="s">
-        <v>399</v>
-      </c>
-      <c r="J161" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C162" t="s">
         <v>194</v>
       </c>
       <c r="D162">
-        <v>161</v>
-      </c>
-      <c r="E162">
         <v>17</v>
       </c>
+      <c r="E162" t="s">
+        <v>355</v>
+      </c>
       <c r="F162" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="G162" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H162" t="s">
-        <v>397</v>
-      </c>
-      <c r="I162" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C163" t="s">
         <v>194</v>
       </c>
       <c r="D163">
-        <v>162</v>
-      </c>
-      <c r="E163">
         <v>17</v>
       </c>
+      <c r="E163" t="s">
+        <v>356</v>
+      </c>
       <c r="F163" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="G163" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H163" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I163" t="s">
-        <v>399</v>
-      </c>
-      <c r="J163" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C164" t="s">
         <v>194</v>
       </c>
       <c r="D164">
-        <v>163</v>
-      </c>
-      <c r="E164">
         <v>17</v>
       </c>
+      <c r="E164" t="s">
+        <v>357</v>
+      </c>
       <c r="F164" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="G164" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H164" t="s">
-        <v>397</v>
-      </c>
-      <c r="I164" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C165" t="s">
         <v>194</v>
       </c>
       <c r="D165">
-        <v>164</v>
-      </c>
-      <c r="E165">
         <v>17</v>
       </c>
+      <c r="E165" t="s">
+        <v>358</v>
+      </c>
       <c r="F165" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="G165" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H165" t="s">
-        <v>397</v>
-      </c>
-      <c r="I165" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C166" t="s">
         <v>194</v>
       </c>
       <c r="D166">
-        <v>165</v>
-      </c>
-      <c r="E166">
         <v>17</v>
       </c>
+      <c r="E166" t="s">
+        <v>359</v>
+      </c>
       <c r="F166" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G166" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="H166" t="s">
-        <v>397</v>
-      </c>
-      <c r="I166" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C167" t="s">
         <v>194</v>
       </c>
       <c r="D167">
-        <v>166</v>
-      </c>
-      <c r="E167">
         <v>17</v>
       </c>
+      <c r="E167" t="s">
+        <v>360</v>
+      </c>
       <c r="F167" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G167" t="s">
-        <v>380</v>
-      </c>
-      <c r="H167" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C168" t="s">
         <v>194</v>
       </c>
       <c r="D168">
-        <v>167</v>
-      </c>
-      <c r="E168">
         <v>17</v>
       </c>
+      <c r="E168" t="s">
+        <v>361</v>
+      </c>
       <c r="F168" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="G168" t="s">
-        <v>380</v>
-      </c>
-      <c r="H168" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C169" t="s">
         <v>194</v>
       </c>
       <c r="D169">
-        <v>168</v>
-      </c>
-      <c r="E169">
         <v>17</v>
       </c>
+      <c r="E169" t="s">
+        <v>362</v>
+      </c>
       <c r="F169" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G169" t="s">
-        <v>380</v>
-      </c>
-      <c r="H169" t="s">
-        <v>397</v>
-      </c>
-      <c r="J169" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
+        <v>403</v>
+      </c>
+      <c r="I169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C170" t="s">
         <v>194</v>
       </c>
       <c r="D170">
-        <v>169</v>
-      </c>
-      <c r="E170">
         <v>17</v>
       </c>
+      <c r="E170" t="s">
+        <v>363</v>
+      </c>
       <c r="F170" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G170" t="s">
-        <v>380</v>
-      </c>
-      <c r="H170" t="s">
-        <v>397</v>
-      </c>
-      <c r="J170" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="I170" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>